--- a/artfynd/A 46041-2022 artfynd.xlsx
+++ b/artfynd/A 46041-2022 artfynd.xlsx
@@ -9312,7 +9312,7 @@
         <v>125095774</v>
       </c>
       <c r="B79" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/artfynd/A 46041-2022 artfynd.xlsx
+++ b/artfynd/A 46041-2022 artfynd.xlsx
@@ -9312,7 +9312,7 @@
         <v>125095774</v>
       </c>
       <c r="B79" t="n">
-        <v>99013</v>
+        <v>99014</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/artfynd/A 46041-2022 artfynd.xlsx
+++ b/artfynd/A 46041-2022 artfynd.xlsx
@@ -9312,7 +9312,7 @@
         <v>125095774</v>
       </c>
       <c r="B79" t="n">
-        <v>99014</v>
+        <v>99015</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/artfynd/A 46041-2022 artfynd.xlsx
+++ b/artfynd/A 46041-2022 artfynd.xlsx
@@ -9312,7 +9312,7 @@
         <v>125095774</v>
       </c>
       <c r="B79" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
